--- a/Effective SS Tax Rates.xlsx
+++ b/Effective SS Tax Rates.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebsmith/Library/Mobile Documents/com~apple~CloudDocs/Documents/Persuasive Writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DB72B2-01F7-E841-B994-856588B3338C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C7E37-BAC8-EB40-9719-7963D738C831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{8F0C035D-A677-BB4C-91FA-77F5F4CFDC6D}"/>
+    <workbookView xWindow="-32500" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{8F0C035D-A677-BB4C-91FA-77F5F4CFDC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lower Bound</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>Total Taxes Paid</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Median Weekly Wage (2022)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median Annual Wage</t>
+  </si>
+  <si>
+    <t>&lt;--- This assumes every worker either works 52 weeks a year, or is paid for time off. In reality, this number is probably a bit lower</t>
+  </si>
+  <si>
+    <t>&lt;--- Numbers taken from www.bls.gov/news.release/pdf/wkyeng.pdf</t>
   </si>
 </sst>
 </file>
@@ -87,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,13 +160,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -448,16 +486,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B2815A-957E-D64E-86AC-9796636EE481}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
@@ -576,101 +614,102 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>100000</v>
+        <f>B25</f>
+        <v>55042</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B9" si="0">A8*C$2</f>
-        <v>6200</v>
+        <f>A8*C$2</f>
+        <v>3412.6039999999998</v>
       </c>
       <c r="C8" s="4">
         <f>A8*D$2</f>
-        <v>6200</v>
+        <v>3412.6039999999998</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ref="D8:D13" si="1">SUM(B8:C8)</f>
-        <v>12400</v>
+        <f>SUM(B8:C8)</f>
+        <v>6825.2079999999996</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E13" si="2">B8/A8</f>
+        <f>B8/A8</f>
         <v>6.2E-2</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F13" si="3">C8/A8</f>
+        <f>C8/A8</f>
         <v>6.2E-2</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G13" si="4">SUM(E8:F8)</f>
+        <f>SUM(E8:F8)</f>
         <v>0.124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:B10" si="0">A9*C$2</f>
+        <v>6200</v>
+      </c>
+      <c r="C9" s="4">
+        <f>A9*D$2</f>
+        <v>6200</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D14" si="1">SUM(B9:C9)</f>
+        <v>12400</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E14" si="2">B9/A9</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F14" si="3">C9/A9</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G14" si="4">SUM(E9:F9)</f>
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>160000</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>9920</v>
       </c>
-      <c r="C9" s="4">
-        <f>A9*D$2</f>
+      <c r="C10" s="4">
+        <f>A10*D$2</f>
         <v>9920</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>19840</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <f t="shared" si="2"/>
         <v>6.2E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>6.2E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="4"/>
         <v>0.124</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>200000</v>
-      </c>
-      <c r="B10" s="4">
-        <f>E$2</f>
-        <v>9932.4</v>
-      </c>
-      <c r="C10" s="4">
-        <f>F$2</f>
-        <v>9932.4</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="1"/>
-        <v>19864.8</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>4.9661999999999998E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="3"/>
-        <v>4.9661999999999998E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="4"/>
-        <v>9.9323999999999996E-2</v>
-      </c>
-    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="B11" s="4">
-        <f>E$2</f>
+        <f t="shared" ref="B11:C14" si="5">E$2</f>
         <v>9932.4</v>
       </c>
       <c r="C11" s="4">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>9932.4</v>
       </c>
       <c r="D11" s="4">
@@ -679,27 +718,27 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
-        <v>1.9864799999999998E-2</v>
+        <v>4.9661999999999998E-2</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>1.9864799999999998E-2</v>
+        <v>4.9661999999999998E-2</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="4"/>
-        <v>3.9729599999999997E-2</v>
+        <v>9.9323999999999996E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="B12" s="4">
-        <f>E$2</f>
+        <f t="shared" si="5"/>
         <v>9932.4</v>
       </c>
       <c r="C12" s="4">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>9932.4</v>
       </c>
       <c r="D12" s="4">
@@ -708,27 +747,27 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
-        <v>9.9323999999999992E-3</v>
+        <v>1.9864799999999998E-2</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="3"/>
-        <v>9.9323999999999992E-3</v>
+        <v>1.9864799999999998E-2</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="4"/>
-        <v>1.9864799999999998E-2</v>
+        <v>3.9729599999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="B13" s="4">
-        <f>E$2</f>
+        <f t="shared" si="5"/>
         <v>9932.4</v>
       </c>
       <c r="C13" s="4">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>9932.4</v>
       </c>
       <c r="D13" s="4">
@@ -737,19 +776,45 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
-        <v>9.9324000000000005E-4</v>
+        <v>9.9323999999999992E-3</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
-        <v>9.9324000000000005E-4</v>
+        <v>9.9323999999999992E-3</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="4"/>
+        <v>1.9864799999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="5"/>
+        <v>9932.4</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="5"/>
+        <v>9932.4</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>19864.8</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>9.9324000000000005E-4</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>9.9324000000000005E-4</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
         <v>1.9864800000000001E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -757,20 +822,69 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <f>SUM(B18:B21)/4</f>
+        <v>1058.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <f>B22*52</f>
+        <v>55042</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Effective SS Tax Rates.xlsx
+++ b/Effective SS Tax Rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebsmith/Library/Mobile Documents/com~apple~CloudDocs/Documents/Persuasive Writing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C7E37-BAC8-EB40-9719-7963D738C831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF56FF1-D9E7-B04C-A992-90A9E5C541C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32500" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{8F0C035D-A677-BB4C-91FA-77F5F4CFDC6D}"/>
+    <workbookView xWindow="-32240" yWindow="1980" windowWidth="28040" windowHeight="17440" xr2:uid="{8F0C035D-A677-BB4C-91FA-77F5F4CFDC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Lower Bound</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>&lt;--- Numbers taken from www.bls.gov/news.release/pdf/wkyeng.pdf</t>
+  </si>
+  <si>
+    <t>New Individual Tax Paid</t>
+  </si>
+  <si>
+    <t>New Corporate Tax Paid</t>
+  </si>
+  <si>
+    <t>New Total Taxes Paid</t>
   </si>
 </sst>
 </file>
@@ -486,18 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B2815A-957E-D64E-86AC-9796636EE481}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -614,7 +623,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>B25</f>
+        <f>B28</f>
         <v>55042</v>
       </c>
       <c r="B8" s="4">
@@ -655,19 +664,19 @@
         <v>6200</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:D14" si="1">SUM(B9:C9)</f>
+        <f t="shared" ref="D9:D15" si="1">SUM(B9:C9)</f>
         <v>12400</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:E14" si="2">B9/A9</f>
+        <f t="shared" ref="E9:E15" si="2">B9/A9</f>
         <v>6.2E-2</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F14" si="3">C9/A9</f>
+        <f t="shared" ref="F9:F15" si="3">C9/A9</f>
         <v>6.2E-2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G14" si="4">SUM(E9:F9)</f>
+        <f t="shared" ref="G9:G15" si="4">SUM(E9:F9)</f>
         <v>0.124</v>
       </c>
     </row>
@@ -705,7 +714,7 @@
         <v>200000</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" ref="B11:C14" si="5">E$2</f>
+        <f t="shared" ref="B11:C15" si="5">E$2</f>
         <v>9932.4</v>
       </c>
       <c r="C11" s="4">
@@ -760,36 +769,36 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1000000</v>
+        <v>825900</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B13" si="6">E$2</f>
         <v>9932.4</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C13" si="7">F$2</f>
         <v>9932.4</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D13" si="8">SUM(B13:C13)</f>
         <v>19864.8</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="2"/>
-        <v>9.9323999999999992E-3</v>
+        <f t="shared" ref="E13" si="9">B13/A13</f>
+        <v>1.202615328732292E-2</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="3"/>
-        <v>9.9323999999999992E-3</v>
+        <f t="shared" ref="F13" si="10">C13/A13</f>
+        <v>1.202615328732292E-2</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9864799999999998E-2</v>
+        <f t="shared" ref="G13" si="11">SUM(E13:F13)</f>
+        <v>2.405230657464584E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="5"/>
@@ -805,84 +814,150 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>9.9324000000000005E-4</v>
+        <v>9.9323999999999992E-3</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
-        <v>9.9324000000000005E-4</v>
+        <v>9.9323999999999992E-3</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>1.9864800000000001E-3</v>
+        <v>1.9864799999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="5"/>
+        <v>9932.4</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="5"/>
+        <v>9932.4</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>19864.8</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9662000000000003E-4</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>4.9662000000000003E-4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9324000000000005E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="B18" s="7">
+        <f>A18*C2</f>
+        <v>1240000</v>
+      </c>
+      <c r="C18" s="7">
+        <f>A18*D2</f>
+        <v>1240000</v>
+      </c>
+      <c r="D18" s="7">
+        <f>SUM(B18:C18)</f>
+        <v>2480000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B21" s="1">
         <v>1032</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B22" s="1">
         <v>1048</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B23" s="1">
         <v>1070</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B24" s="1">
         <v>1084</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7">
-        <f>SUM(B18:B21)/4</f>
+      <c r="B25" s="7">
+        <f>SUM(B21:B24)/4</f>
         <v>1058.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="7">
-        <f>B22*52</f>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <f>B25*52</f>
         <v>55042</v>
       </c>
     </row>
